--- a/programas/Projects/6_regresionLineal/logOXY.xlsx
+++ b/programas/Projects/6_regresionLineal/logOXY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1537"/>
+  <dimension ref="A1:J1603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,9 +498,7 @@
         <v>76.52999877929688</v>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -46574,6 +46572,1990 @@
         <v>76.2050813711927</v>
       </c>
     </row>
+    <row r="1538">
+      <c r="A1538" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-22</t>
+        </is>
+      </c>
+      <c r="B1538" t="inlineStr">
+        <is>
+          <t>2022-06-22</t>
+        </is>
+      </c>
+      <c r="C1538" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1538" t="n">
+        <v>55.77000045776367</v>
+      </c>
+      <c r="E1538" t="inlineStr"/>
+      <c r="F1538" t="inlineStr"/>
+      <c r="G1538" t="inlineStr"/>
+      <c r="H1538" t="n">
+        <v>-0.03628820654710696</v>
+      </c>
+      <c r="I1538" t="n">
+        <v>-0.03628820654710696</v>
+      </c>
+      <c r="J1538" t="n">
+        <v>73.43973563845577</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="B1539" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="C1539" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1539" t="n">
+        <v>56.09000015258789</v>
+      </c>
+      <c r="E1539" t="inlineStr"/>
+      <c r="F1539" t="inlineStr"/>
+      <c r="G1539" t="inlineStr"/>
+      <c r="H1539" t="n">
+        <v>0.005737846372559474</v>
+      </c>
+      <c r="I1539" t="n">
+        <v>0.005737846372559474</v>
+      </c>
+      <c r="J1539" t="n">
+        <v>73.86112155919061</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="B1540" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="C1540" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1540" t="n">
+        <v>57.52000045776367</v>
+      </c>
+      <c r="E1540" t="inlineStr"/>
+      <c r="F1540" t="inlineStr"/>
+      <c r="G1540" t="inlineStr"/>
+      <c r="H1540" t="n">
+        <v>0.02549474596693879</v>
+      </c>
+      <c r="I1540" t="n">
+        <v>0.02549474596693879</v>
+      </c>
+      <c r="J1540" t="n">
+        <v>75.74419209017536</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="B1541" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="C1541" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1541" t="n">
+        <v>58.90000152587891</v>
+      </c>
+      <c r="E1541" t="inlineStr"/>
+      <c r="F1541" t="inlineStr"/>
+      <c r="G1541" t="inlineStr"/>
+      <c r="H1541" t="n">
+        <v>0.0239916734550194</v>
+      </c>
+      <c r="I1541" t="n">
+        <v>0.0239916734550194</v>
+      </c>
+      <c r="J1541" t="n">
+        <v>77.56142201291712</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B1542" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="C1542" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1542" t="n">
+        <v>61.70999908447266</v>
+      </c>
+      <c r="E1542" t="inlineStr"/>
+      <c r="F1542" t="inlineStr"/>
+      <c r="G1542" t="inlineStr"/>
+      <c r="H1542" t="n">
+        <v>0.04770793694052999</v>
+      </c>
+      <c r="I1542" t="n">
+        <v>0.04770793694052999</v>
+      </c>
+      <c r="J1542" t="n">
+        <v>81.2617174433272</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-29</t>
+        </is>
+      </c>
+      <c r="B1543" t="inlineStr">
+        <is>
+          <t>2022-06-29</t>
+        </is>
+      </c>
+      <c r="C1543" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1543" t="n">
+        <v>59.09999847412109</v>
+      </c>
+      <c r="E1543" t="inlineStr"/>
+      <c r="F1543" t="inlineStr"/>
+      <c r="G1543" t="inlineStr"/>
+      <c r="H1543" t="n">
+        <v>-0.0422946143100541</v>
+      </c>
+      <c r="I1543" t="n">
+        <v>-0.0422946143100541</v>
+      </c>
+      <c r="J1543" t="n">
+        <v>77.82478444588907</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="B1544" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="C1544" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1544" t="n">
+        <v>58.88000106811523</v>
+      </c>
+      <c r="E1544" t="inlineStr"/>
+      <c r="F1544" t="inlineStr"/>
+      <c r="G1544" t="inlineStr"/>
+      <c r="H1544" t="n">
+        <v>-0.003722460434617325</v>
+      </c>
+      <c r="I1544" t="n">
+        <v>-0.003722460434617325</v>
+      </c>
+      <c r="J1544" t="n">
+        <v>77.53508476495664</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-01</t>
+        </is>
+      </c>
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>2022-07-01</t>
+        </is>
+      </c>
+      <c r="C1545" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1545" t="n">
+        <v>60.43999862670898</v>
+      </c>
+      <c r="E1545" t="inlineStr"/>
+      <c r="F1545" t="inlineStr"/>
+      <c r="G1545" t="inlineStr"/>
+      <c r="H1545" t="n">
+        <v>0.02649452327266544</v>
+      </c>
+      <c r="I1545" t="n">
+        <v>0.02649452327266544</v>
+      </c>
+      <c r="J1545" t="n">
+        <v>79.58933987270986</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-05</t>
+        </is>
+      </c>
+      <c r="B1546" t="inlineStr">
+        <is>
+          <t>2022-07-05</t>
+        </is>
+      </c>
+      <c r="C1546" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1546" t="n">
+        <v>59.11000061035156</v>
+      </c>
+      <c r="E1546" t="inlineStr"/>
+      <c r="F1546" t="inlineStr"/>
+      <c r="G1546" t="inlineStr"/>
+      <c r="H1546" t="n">
+        <v>-0.02200526218691345</v>
+      </c>
+      <c r="I1546" t="n">
+        <v>-0.02200526218691345</v>
+      </c>
+      <c r="J1546" t="n">
+        <v>77.83795558152752</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-06</t>
+        </is>
+      </c>
+      <c r="B1547" t="inlineStr">
+        <is>
+          <t>2022-07-06</t>
+        </is>
+      </c>
+      <c r="C1547" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1547" t="n">
+        <v>59.11000061035156</v>
+      </c>
+      <c r="E1547" t="inlineStr"/>
+      <c r="F1547" t="inlineStr"/>
+      <c r="G1547" t="inlineStr"/>
+      <c r="H1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1547" t="n">
+        <v>77.83795558152752</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-07</t>
+        </is>
+      </c>
+      <c r="B1548" t="inlineStr">
+        <is>
+          <t>2022-07-07</t>
+        </is>
+      </c>
+      <c r="C1548" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1548" t="n">
+        <v>61.47000122070312</v>
+      </c>
+      <c r="E1548" t="inlineStr"/>
+      <c r="F1548" t="inlineStr"/>
+      <c r="G1548" t="inlineStr"/>
+      <c r="H1548" t="n">
+        <v>0.03992557242400485</v>
+      </c>
+      <c r="I1548" t="n">
+        <v>0.03992557242400485</v>
+      </c>
+      <c r="J1548" t="n">
+        <v>80.94568051443427</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-08</t>
+        </is>
+      </c>
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>2022-07-08</t>
+        </is>
+      </c>
+      <c r="C1549" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1549" t="n">
+        <v>60.66999816894531</v>
+      </c>
+      <c r="E1549" t="inlineStr"/>
+      <c r="F1549" t="inlineStr"/>
+      <c r="G1549" t="inlineStr"/>
+      <c r="H1549" t="n">
+        <v>-0.01301452799529745</v>
+      </c>
+      <c r="I1549" t="n">
+        <v>-0.01301452799529745</v>
+      </c>
+      <c r="J1549" t="n">
+        <v>79.89221068928076</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-11</t>
+        </is>
+      </c>
+      <c r="B1550" t="inlineStr">
+        <is>
+          <t>2022-07-11</t>
+        </is>
+      </c>
+      <c r="C1550" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1550" t="n">
+        <v>59.52000045776367</v>
+      </c>
+      <c r="E1550" t="inlineStr"/>
+      <c r="F1550" t="inlineStr"/>
+      <c r="G1550" t="inlineStr"/>
+      <c r="H1550" t="n">
+        <v>-0.01895496531876084</v>
+      </c>
+      <c r="I1550" t="n">
+        <v>-0.01895496531876084</v>
+      </c>
+      <c r="J1550" t="n">
+        <v>78.37785660642631</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-12</t>
+        </is>
+      </c>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>2022-07-12</t>
+        </is>
+      </c>
+      <c r="C1551" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1551" t="n">
+        <v>57.36999893188477</v>
+      </c>
+      <c r="E1551" t="inlineStr"/>
+      <c r="F1551" t="inlineStr"/>
+      <c r="G1551" t="inlineStr"/>
+      <c r="H1551" t="n">
+        <v>-0.03612233718654922</v>
+      </c>
+      <c r="I1551" t="n">
+        <v>-0.03612233718654922</v>
+      </c>
+      <c r="J1551" t="n">
+        <v>75.54666524212998</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="B1552" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="C1552" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1552" t="n">
+        <v>58.0099983215332</v>
+      </c>
+      <c r="E1552" t="inlineStr"/>
+      <c r="F1552" t="inlineStr"/>
+      <c r="G1552" t="inlineStr"/>
+      <c r="H1552" t="n">
+        <v>0.01115564583517425</v>
+      </c>
+      <c r="I1552" t="n">
+        <v>0.01115564583517425</v>
+      </c>
+      <c r="J1552" t="n">
+        <v>76.38943708359965</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="C1553" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1553" t="n">
+        <v>57.22999954223633</v>
+      </c>
+      <c r="E1553" t="inlineStr"/>
+      <c r="F1553" t="inlineStr"/>
+      <c r="G1553" t="inlineStr"/>
+      <c r="H1553" t="n">
+        <v>-0.01344593693958684</v>
+      </c>
+      <c r="I1553" t="n">
+        <v>-0.01344593693958684</v>
+      </c>
+      <c r="J1553" t="n">
+        <v>75.36230952972302</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-15</t>
+        </is>
+      </c>
+      <c r="B1554" t="inlineStr">
+        <is>
+          <t>2022-07-15</t>
+        </is>
+      </c>
+      <c r="C1554" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1554" t="n">
+        <v>58.70999908447266</v>
+      </c>
+      <c r="E1554" t="inlineStr"/>
+      <c r="F1554" t="inlineStr"/>
+      <c r="G1554" t="inlineStr"/>
+      <c r="H1554" t="n">
+        <v>0.0258605548501547</v>
+      </c>
+      <c r="I1554" t="n">
+        <v>0.0258605548501547</v>
+      </c>
+      <c r="J1554" t="n">
+        <v>77.31122066895077</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-18</t>
+        </is>
+      </c>
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>2022-07-18</t>
+        </is>
+      </c>
+      <c r="C1555" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1555" t="n">
+        <v>60.04999923706055</v>
+      </c>
+      <c r="E1555" t="inlineStr"/>
+      <c r="F1555" t="inlineStr"/>
+      <c r="G1555" t="inlineStr"/>
+      <c r="H1555" t="n">
+        <v>0.02282405337223525</v>
+      </c>
+      <c r="I1555" t="n">
+        <v>0.02282405337223525</v>
+      </c>
+      <c r="J1555" t="n">
+        <v>79.07577609577156</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-19</t>
+        </is>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>2022-07-19</t>
+        </is>
+      </c>
+      <c r="C1556" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1556" t="n">
+        <v>62.81999969482422</v>
+      </c>
+      <c r="E1556" t="inlineStr"/>
+      <c r="F1556" t="inlineStr"/>
+      <c r="G1556" t="inlineStr"/>
+      <c r="H1556" t="n">
+        <v>0.04612823468703953</v>
+      </c>
+      <c r="I1556" t="n">
+        <v>0.04612823468703953</v>
+      </c>
+      <c r="J1556" t="n">
+        <v>82.7234020535771</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-20</t>
+        </is>
+      </c>
+      <c r="B1557" t="inlineStr">
+        <is>
+          <t>2022-07-20</t>
+        </is>
+      </c>
+      <c r="C1557" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1557" t="n">
+        <v>63.54999923706055</v>
+      </c>
+      <c r="E1557" t="inlineStr"/>
+      <c r="F1557" t="inlineStr"/>
+      <c r="G1557" t="inlineStr"/>
+      <c r="H1557" t="n">
+        <v>0.01162049579405644</v>
+      </c>
+      <c r="I1557" t="n">
+        <v>0.01162049579405644</v>
+      </c>
+      <c r="J1557" t="n">
+        <v>83.68468899921074</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-21</t>
+        </is>
+      </c>
+      <c r="B1558" t="inlineStr">
+        <is>
+          <t>2022-07-21</t>
+        </is>
+      </c>
+      <c r="C1558" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1558" t="n">
+        <v>62</v>
+      </c>
+      <c r="E1558" t="inlineStr"/>
+      <c r="F1558" t="inlineStr"/>
+      <c r="G1558" t="inlineStr"/>
+      <c r="H1558" t="n">
+        <v>-0.02439023218991054</v>
+      </c>
+      <c r="I1558" t="n">
+        <v>-0.02439023218991054</v>
+      </c>
+      <c r="J1558" t="n">
+        <v>81.64360000377953</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-22</t>
+        </is>
+      </c>
+      <c r="B1559" t="inlineStr">
+        <is>
+          <t>2022-07-22</t>
+        </is>
+      </c>
+      <c r="C1559" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1559" t="n">
+        <v>61.06000137329102</v>
+      </c>
+      <c r="E1559" t="inlineStr"/>
+      <c r="F1559" t="inlineStr"/>
+      <c r="G1559" t="inlineStr"/>
+      <c r="H1559" t="n">
+        <v>-0.01516126817272556</v>
+      </c>
+      <c r="I1559" t="n">
+        <v>-0.01516126817272556</v>
+      </c>
+      <c r="J1559" t="n">
+        <v>80.40577948953549</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-25</t>
+        </is>
+      </c>
+      <c r="B1560" t="inlineStr">
+        <is>
+          <t>2022-07-25</t>
+        </is>
+      </c>
+      <c r="C1560" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1560" t="n">
+        <v>64.41000366210938</v>
+      </c>
+      <c r="E1560" t="inlineStr"/>
+      <c r="F1560" t="inlineStr"/>
+      <c r="G1560" t="inlineStr"/>
+      <c r="H1560" t="n">
+        <v>0.0548641043805107</v>
+      </c>
+      <c r="I1560" t="n">
+        <v>0.0548641043805107</v>
+      </c>
+      <c r="J1560" t="n">
+        <v>84.81717056824569</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-26</t>
+        </is>
+      </c>
+      <c r="B1561" t="inlineStr">
+        <is>
+          <t>2022-07-26</t>
+        </is>
+      </c>
+      <c r="C1561" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1561" t="n">
+        <v>62.06999969482422</v>
+      </c>
+      <c r="E1561" t="inlineStr"/>
+      <c r="F1561" t="inlineStr"/>
+      <c r="G1561" t="inlineStr"/>
+      <c r="H1561" t="n">
+        <v>-0.03632982198791146</v>
+      </c>
+      <c r="I1561" t="n">
+        <v>-0.03632982198791146</v>
+      </c>
+      <c r="J1561" t="n">
+        <v>81.735777859983</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-27</t>
+        </is>
+      </c>
+      <c r="B1562" t="inlineStr">
+        <is>
+          <t>2022-07-27</t>
+        </is>
+      </c>
+      <c r="C1562" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1562" t="n">
+        <v>62.77999877929688</v>
+      </c>
+      <c r="E1562" t="inlineStr"/>
+      <c r="F1562" t="inlineStr"/>
+      <c r="G1562" t="inlineStr"/>
+      <c r="H1562" t="n">
+        <v>0.01143868355024114</v>
+      </c>
+      <c r="I1562" t="n">
+        <v>0.01143868355024114</v>
+      </c>
+      <c r="J1562" t="n">
+        <v>82.67072755765615</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-28</t>
+        </is>
+      </c>
+      <c r="B1563" t="inlineStr">
+        <is>
+          <t>2022-07-28</t>
+        </is>
+      </c>
+      <c r="C1563" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1563" t="n">
+        <v>62.63999938964844</v>
+      </c>
+      <c r="E1563" t="inlineStr"/>
+      <c r="F1563" t="inlineStr"/>
+      <c r="G1563" t="inlineStr"/>
+      <c r="H1563" t="n">
+        <v>-0.002229999878474165</v>
+      </c>
+      <c r="I1563" t="n">
+        <v>-0.002229999878474165</v>
+      </c>
+      <c r="J1563" t="n">
+        <v>82.48637184524921</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-29</t>
+        </is>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>2022-07-29</t>
+        </is>
+      </c>
+      <c r="C1564" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1564" t="n">
+        <v>65.75</v>
+      </c>
+      <c r="E1564" t="inlineStr"/>
+      <c r="F1564" t="inlineStr"/>
+      <c r="G1564" t="inlineStr"/>
+      <c r="H1564" t="n">
+        <v>0.04964879694531898</v>
+      </c>
+      <c r="I1564" t="n">
+        <v>0.04964879694531898</v>
+      </c>
+      <c r="J1564" t="n">
+        <v>86.58172097175006</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="B1565" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="C1565" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1565" t="n">
+        <v>65.23000335693359</v>
+      </c>
+      <c r="E1565" t="inlineStr"/>
+      <c r="F1565" t="inlineStr"/>
+      <c r="G1565" t="inlineStr"/>
+      <c r="H1565" t="n">
+        <v>-0.007908694191124055</v>
+      </c>
+      <c r="I1565" t="n">
+        <v>-0.007908694191124055</v>
+      </c>
+      <c r="J1565" t="n">
+        <v>85.89697261804326</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-02</t>
+        </is>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>2022-08-02</t>
+        </is>
+      </c>
+      <c r="C1566" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1566" t="n">
+        <v>65.05999755859375</v>
+      </c>
+      <c r="E1566" t="inlineStr"/>
+      <c r="F1566" t="inlineStr"/>
+      <c r="G1566" t="inlineStr"/>
+      <c r="H1566" t="n">
+        <v>-0.002606251565090201</v>
+      </c>
+      <c r="I1566" t="n">
+        <v>-0.002606251565090201</v>
+      </c>
+      <c r="J1566" t="n">
+        <v>85.67310349872098</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-03</t>
+        </is>
+      </c>
+      <c r="B1567" t="inlineStr">
+        <is>
+          <t>2022-08-03</t>
+        </is>
+      </c>
+      <c r="C1567" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1567" t="n">
+        <v>60.9900016784668</v>
+      </c>
+      <c r="E1567" t="inlineStr"/>
+      <c r="F1567" t="inlineStr"/>
+      <c r="G1567" t="inlineStr"/>
+      <c r="H1567" t="n">
+        <v>-0.06255757812565965</v>
+      </c>
+      <c r="I1567" t="n">
+        <v>-0.06255757812565965</v>
+      </c>
+      <c r="J1567" t="n">
+        <v>80.31360163333203</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="B1568" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="C1568" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1568" t="n">
+        <v>57.45999908447266</v>
+      </c>
+      <c r="E1568" t="inlineStr"/>
+      <c r="F1568" t="inlineStr"/>
+      <c r="G1568" t="inlineStr"/>
+      <c r="H1568" t="n">
+        <v>-0.05787838165022463</v>
+      </c>
+      <c r="I1568" t="n">
+        <v>-0.05787838165022463</v>
+      </c>
+      <c r="J1568" t="n">
+        <v>75.66518034629392</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-05</t>
+        </is>
+      </c>
+      <c r="B1569" t="inlineStr">
+        <is>
+          <t>2022-08-05</t>
+        </is>
+      </c>
+      <c r="C1569" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1569" t="n">
+        <v>59.0099983215332</v>
+      </c>
+      <c r="E1569" t="inlineStr"/>
+      <c r="F1569" t="inlineStr"/>
+      <c r="G1569" t="inlineStr"/>
+      <c r="H1569" t="n">
+        <v>0.0269752743083389</v>
+      </c>
+      <c r="I1569" t="n">
+        <v>0.0269752743083389</v>
+      </c>
+      <c r="J1569" t="n">
+        <v>77.70626934172515</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-08</t>
+        </is>
+      </c>
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>2022-08-08</t>
+        </is>
+      </c>
+      <c r="C1570" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1570" t="n">
+        <v>60.04000091552734</v>
+      </c>
+      <c r="E1570" t="inlineStr"/>
+      <c r="F1570" t="inlineStr"/>
+      <c r="G1570" t="inlineStr"/>
+      <c r="H1570" t="n">
+        <v>0.01745471315524982</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>0.01745471315524982</v>
+      </c>
+      <c r="J1570" t="n">
+        <v>79.06260998344953</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-09</t>
+        </is>
+      </c>
+      <c r="B1571" t="inlineStr">
+        <is>
+          <t>2022-08-09</t>
+        </is>
+      </c>
+      <c r="C1571" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1571" t="n">
+        <v>62.40999984741211</v>
+      </c>
+      <c r="E1571" t="inlineStr"/>
+      <c r="F1571" t="inlineStr"/>
+      <c r="G1571" t="inlineStr"/>
+      <c r="H1571" t="n">
+        <v>0.03947366581854683</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>0.03947366581854683</v>
+      </c>
+      <c r="J1571" t="n">
+        <v>82.18350102867834</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-10</t>
+        </is>
+      </c>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>2022-08-10</t>
+        </is>
+      </c>
+      <c r="C1572" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1572" t="n">
+        <v>62.86000061035156</v>
+      </c>
+      <c r="E1572" t="inlineStr"/>
+      <c r="F1572" t="inlineStr"/>
+      <c r="G1572" t="inlineStr"/>
+      <c r="H1572" t="n">
+        <v>0.007210395193713692</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>0.007210395193713692</v>
+      </c>
+      <c r="J1572" t="n">
+        <v>82.77607654949807</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-11</t>
+        </is>
+      </c>
+      <c r="B1573" t="inlineStr">
+        <is>
+          <t>2022-08-11</t>
+        </is>
+      </c>
+      <c r="C1573" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1573" t="n">
+        <v>65.69000244140625</v>
+      </c>
+      <c r="E1573" t="inlineStr"/>
+      <c r="F1573" t="inlineStr"/>
+      <c r="G1573" t="inlineStr"/>
+      <c r="H1573" t="n">
+        <v>0.04502070957009585</v>
+      </c>
+      <c r="I1573" t="n">
+        <v>0.04502070957009585</v>
+      </c>
+      <c r="J1573" t="n">
+        <v>86.50271425118505</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-12</t>
+        </is>
+      </c>
+      <c r="B1574" t="inlineStr">
+        <is>
+          <t>2022-08-12</t>
+        </is>
+      </c>
+      <c r="C1574" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1574" t="n">
+        <v>65.73000335693359</v>
+      </c>
+      <c r="E1574" t="inlineStr"/>
+      <c r="F1574" t="inlineStr"/>
+      <c r="G1574" t="inlineStr"/>
+      <c r="H1574" t="n">
+        <v>0.0006089346025375253</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>0.0006089346025375253</v>
+      </c>
+      <c r="J1574" t="n">
+        <v>86.55538874710602</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-15</t>
+        </is>
+      </c>
+      <c r="B1575" t="inlineStr">
+        <is>
+          <t>2022-08-15</t>
+        </is>
+      </c>
+      <c r="C1575" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1575" t="n">
+        <v>64.33999633789062</v>
+      </c>
+      <c r="E1575" t="inlineStr"/>
+      <c r="F1575" t="inlineStr"/>
+      <c r="G1575" t="inlineStr"/>
+      <c r="H1575" t="n">
+        <v>-0.02114722269972835</v>
+      </c>
+      <c r="I1575" t="n">
+        <v>-0.02114722269972835</v>
+      </c>
+      <c r="J1575" t="n">
+        <v>84.72498266540941</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-16</t>
+        </is>
+      </c>
+      <c r="B1576" t="inlineStr">
+        <is>
+          <t>2022-08-16</t>
+        </is>
+      </c>
+      <c r="C1576" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1576" t="n">
+        <v>63.5099983215332</v>
+      </c>
+      <c r="E1576" t="inlineStr"/>
+      <c r="F1576" t="inlineStr"/>
+      <c r="G1576" t="inlineStr"/>
+      <c r="H1576" t="n">
+        <v>-0.01290018749765809</v>
+      </c>
+      <c r="I1576" t="n">
+        <v>-0.01290018749765809</v>
+      </c>
+      <c r="J1576" t="n">
+        <v>83.6320145032898</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
+      </c>
+      <c r="B1577" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
+      </c>
+      <c r="C1577" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1577" t="n">
+        <v>62.97000122070312</v>
+      </c>
+      <c r="E1577" t="inlineStr"/>
+      <c r="F1577" t="inlineStr"/>
+      <c r="G1577" t="inlineStr"/>
+      <c r="H1577" t="n">
+        <v>-0.008502552591738821</v>
+      </c>
+      <c r="I1577" t="n">
+        <v>-0.008502552591738821</v>
+      </c>
+      <c r="J1577" t="n">
+        <v>82.92092890162252</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-18</t>
+        </is>
+      </c>
+      <c r="B1578" t="inlineStr">
+        <is>
+          <t>2022-08-18</t>
+        </is>
+      </c>
+      <c r="C1578" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1578" t="n">
+        <v>64.87999725341797</v>
+      </c>
+      <c r="E1578" t="inlineStr"/>
+      <c r="F1578" t="inlineStr"/>
+      <c r="G1578" t="inlineStr"/>
+      <c r="H1578" t="n">
+        <v>0.03033184049052995</v>
+      </c>
+      <c r="I1578" t="n">
+        <v>0.03033184049052995</v>
+      </c>
+      <c r="J1578" t="n">
+        <v>85.4360732903931</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-19</t>
+        </is>
+      </c>
+      <c r="B1579" t="inlineStr">
+        <is>
+          <t>2022-08-19</t>
+        </is>
+      </c>
+      <c r="C1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>71.29000091552734</v>
+      </c>
+      <c r="E1579" t="inlineStr"/>
+      <c r="F1579" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1579" t="inlineStr"/>
+      <c r="H1579" t="n">
+        <v>0.09879784114466328</v>
+      </c>
+      <c r="I1579" t="n">
+        <v>0.09879784114466328</v>
+      </c>
+      <c r="J1579" t="n">
+        <v>93.87697288736116</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-22</t>
+        </is>
+      </c>
+      <c r="B1580" t="inlineStr">
+        <is>
+          <t>2022-08-22</t>
+        </is>
+      </c>
+      <c r="C1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>69.02999877929688</v>
+      </c>
+      <c r="E1580" t="inlineStr"/>
+      <c r="F1580" t="inlineStr"/>
+      <c r="G1580" t="inlineStr"/>
+      <c r="H1580" t="n">
+        <v>-0.03170153047000768</v>
+      </c>
+      <c r="I1580" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1580" t="n">
+        <v>93.87697288736116</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-23</t>
+        </is>
+      </c>
+      <c r="B1581" t="inlineStr">
+        <is>
+          <t>2022-08-23</t>
+        </is>
+      </c>
+      <c r="C1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1581" t="n">
+        <v>73.79000091552734</v>
+      </c>
+      <c r="E1581" t="inlineStr"/>
+      <c r="F1581" t="inlineStr"/>
+      <c r="G1581" t="inlineStr"/>
+      <c r="H1581" t="n">
+        <v>0.06895555874843895</v>
+      </c>
+      <c r="I1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1581" t="n">
+        <v>93.87697288736116</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B1582" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="C1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1582" t="n">
+        <v>74.91000366210938</v>
+      </c>
+      <c r="E1582" t="inlineStr"/>
+      <c r="F1582" t="inlineStr"/>
+      <c r="G1582" t="inlineStr"/>
+      <c r="H1582" t="n">
+        <v>0.01517824546260926</v>
+      </c>
+      <c r="I1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1582" t="n">
+        <v>93.87697288736116</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-25</t>
+        </is>
+      </c>
+      <c r="B1583" t="inlineStr">
+        <is>
+          <t>2022-08-25</t>
+        </is>
+      </c>
+      <c r="C1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1583" t="n">
+        <v>74.48000335693359</v>
+      </c>
+      <c r="E1583" t="inlineStr"/>
+      <c r="F1583" t="inlineStr"/>
+      <c r="G1583" t="inlineStr"/>
+      <c r="H1583" t="n">
+        <v>-0.005740225392530385</v>
+      </c>
+      <c r="I1583" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1583" t="n">
+        <v>93.87697288736116</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-26</t>
+        </is>
+      </c>
+      <c r="B1584" t="inlineStr">
+        <is>
+          <t>2022-08-26</t>
+        </is>
+      </c>
+      <c r="C1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1584" t="n">
+        <v>73.55000305175781</v>
+      </c>
+      <c r="E1584" t="inlineStr"/>
+      <c r="F1584" t="inlineStr"/>
+      <c r="G1584" t="inlineStr"/>
+      <c r="H1584" t="n">
+        <v>-0.0124865771114282</v>
+      </c>
+      <c r="I1584" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1584" t="n">
+        <v>93.87697288736116</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
+      </c>
+      <c r="B1585" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
+      </c>
+      <c r="C1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1585" t="n">
+        <v>75.26000213623047</v>
+      </c>
+      <c r="E1585" t="inlineStr"/>
+      <c r="F1585" t="inlineStr"/>
+      <c r="G1585" t="inlineStr"/>
+      <c r="H1585" t="n">
+        <v>0.02324947673039945</v>
+      </c>
+      <c r="I1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1585" t="n">
+        <v>93.87697288736116</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-30</t>
+        </is>
+      </c>
+      <c r="B1586" t="inlineStr">
+        <is>
+          <t>2022-08-30</t>
+        </is>
+      </c>
+      <c r="C1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1586" t="n">
+        <v>72.01000213623047</v>
+      </c>
+      <c r="E1586" t="inlineStr"/>
+      <c r="F1586" t="inlineStr"/>
+      <c r="G1586" t="inlineStr"/>
+      <c r="H1586" t="n">
+        <v>-0.04318362885662785</v>
+      </c>
+      <c r="I1586" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1586" t="n">
+        <v>93.87697288736116</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-31</t>
+        </is>
+      </c>
+      <c r="B1587" t="inlineStr">
+        <is>
+          <t>2022-08-31</t>
+        </is>
+      </c>
+      <c r="C1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1587" t="n">
+        <v>71</v>
+      </c>
+      <c r="E1587" t="inlineStr"/>
+      <c r="F1587" t="inlineStr"/>
+      <c r="G1587" t="inlineStr"/>
+      <c r="H1587" t="n">
+        <v>-0.01402585899552844</v>
+      </c>
+      <c r="I1587" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1587" t="n">
+        <v>93.87697288736116</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-01</t>
+        </is>
+      </c>
+      <c r="B1588" t="inlineStr">
+        <is>
+          <t>2022-09-01</t>
+        </is>
+      </c>
+      <c r="C1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1588" t="n">
+        <v>68.40000152587891</v>
+      </c>
+      <c r="E1588" t="inlineStr"/>
+      <c r="F1588" t="inlineStr"/>
+      <c r="G1588" t="inlineStr"/>
+      <c r="H1588" t="n">
+        <v>-0.03661969681860699</v>
+      </c>
+      <c r="I1588" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1588" t="n">
+        <v>93.87697288736116</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-02</t>
+        </is>
+      </c>
+      <c r="B1589" t="inlineStr">
+        <is>
+          <t>2022-09-02</t>
+        </is>
+      </c>
+      <c r="C1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1589" t="n">
+        <v>68.76999664306641</v>
+      </c>
+      <c r="E1589" t="inlineStr"/>
+      <c r="F1589" t="inlineStr"/>
+      <c r="G1589" t="inlineStr"/>
+      <c r="H1589" t="n">
+        <v>0.005409285218327176</v>
+      </c>
+      <c r="I1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1589" t="n">
+        <v>93.87697288736116</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-06</t>
+        </is>
+      </c>
+      <c r="B1590" t="inlineStr">
+        <is>
+          <t>2022-09-06</t>
+        </is>
+      </c>
+      <c r="C1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1590" t="n">
+        <v>66.87999725341797</v>
+      </c>
+      <c r="E1590" t="inlineStr"/>
+      <c r="F1590" t="inlineStr"/>
+      <c r="G1590" t="inlineStr"/>
+      <c r="H1590" t="n">
+        <v>-0.02748290652765351</v>
+      </c>
+      <c r="I1590" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1590" t="n">
+        <v>93.87697288736116</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-07</t>
+        </is>
+      </c>
+      <c r="B1591" t="inlineStr">
+        <is>
+          <t>2022-09-07</t>
+        </is>
+      </c>
+      <c r="C1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1591" t="n">
+        <v>65.43000030517578</v>
+      </c>
+      <c r="E1591" t="inlineStr"/>
+      <c r="F1591" t="inlineStr"/>
+      <c r="G1591" t="inlineStr"/>
+      <c r="H1591" t="n">
+        <v>-0.02168057726958239</v>
+      </c>
+      <c r="I1591" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1591" t="n">
+        <v>93.87697288736116</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+      <c r="B1592" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+      <c r="C1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1592" t="n">
+        <v>64.61000061035156</v>
+      </c>
+      <c r="E1592" t="inlineStr"/>
+      <c r="F1592" t="inlineStr"/>
+      <c r="G1592" t="inlineStr"/>
+      <c r="H1592" t="n">
+        <v>-0.01253247273421387</v>
+      </c>
+      <c r="I1592" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1592" t="n">
+        <v>93.87697288736116</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-09</t>
+        </is>
+      </c>
+      <c r="B1593" t="inlineStr">
+        <is>
+          <t>2022-09-09</t>
+        </is>
+      </c>
+      <c r="C1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1593" t="n">
+        <v>65.61000061035156</v>
+      </c>
+      <c r="E1593" t="inlineStr"/>
+      <c r="F1593" t="inlineStr"/>
+      <c r="G1593" t="inlineStr"/>
+      <c r="H1593" t="n">
+        <v>0.0154774801200015</v>
+      </c>
+      <c r="I1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1593" t="n">
+        <v>93.87697288736116</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-12</t>
+        </is>
+      </c>
+      <c r="B1594" t="inlineStr">
+        <is>
+          <t>2022-09-12</t>
+        </is>
+      </c>
+      <c r="C1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1594" t="n">
+        <v>66.80000305175781</v>
+      </c>
+      <c r="E1594" t="inlineStr"/>
+      <c r="F1594" t="inlineStr"/>
+      <c r="G1594" t="inlineStr"/>
+      <c r="H1594" t="n">
+        <v>0.01813751608498682</v>
+      </c>
+      <c r="I1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1594" t="n">
+        <v>93.87697288736116</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+      <c r="B1595" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+      <c r="C1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1595" t="n">
+        <v>65.33999633789062</v>
+      </c>
+      <c r="E1595" t="inlineStr"/>
+      <c r="F1595" t="inlineStr"/>
+      <c r="G1595" t="inlineStr"/>
+      <c r="H1595" t="n">
+        <v>-0.02185638693363456</v>
+      </c>
+      <c r="I1595" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1595" t="n">
+        <v>93.87697288736116</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-14</t>
+        </is>
+      </c>
+      <c r="B1596" t="inlineStr">
+        <is>
+          <t>2022-09-14</t>
+        </is>
+      </c>
+      <c r="C1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1596" t="n">
+        <v>67.19999694824219</v>
+      </c>
+      <c r="E1596" t="inlineStr"/>
+      <c r="F1596" t="inlineStr"/>
+      <c r="G1596" t="inlineStr"/>
+      <c r="H1596" t="n">
+        <v>0.02846649394856104</v>
+      </c>
+      <c r="I1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1596" t="n">
+        <v>93.87697288736116</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+      <c r="B1597" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+      <c r="C1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1597" t="n">
+        <v>65.08999633789062</v>
+      </c>
+      <c r="E1597" t="inlineStr"/>
+      <c r="F1597" t="inlineStr"/>
+      <c r="G1597" t="inlineStr"/>
+      <c r="H1597" t="n">
+        <v>-0.03139882003233863</v>
+      </c>
+      <c r="I1597" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1597" t="n">
+        <v>93.87697288736116</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+      <c r="B1598" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+      <c r="C1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1598" t="n">
+        <v>64.41000366210938</v>
+      </c>
+      <c r="E1598" t="inlineStr"/>
+      <c r="F1598" t="inlineStr"/>
+      <c r="G1598" t="inlineStr"/>
+      <c r="H1598" t="n">
+        <v>-0.01044696134643053</v>
+      </c>
+      <c r="I1598" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1598" t="n">
+        <v>93.87697288736116</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="B1599" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="C1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1599" t="n">
+        <v>64.68000030517578</v>
+      </c>
+      <c r="E1599" t="inlineStr"/>
+      <c r="F1599" t="inlineStr"/>
+      <c r="G1599" t="inlineStr"/>
+      <c r="H1599" t="n">
+        <v>0.004191843311836863</v>
+      </c>
+      <c r="I1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1599" t="n">
+        <v>93.87697288736116</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B1600" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="C1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1600" t="n">
+        <v>64.27999877929688</v>
+      </c>
+      <c r="E1600" t="inlineStr"/>
+      <c r="F1600" t="inlineStr"/>
+      <c r="G1600" t="inlineStr"/>
+      <c r="H1600" t="n">
+        <v>-0.006184315460599943</v>
+      </c>
+      <c r="I1600" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1600" t="n">
+        <v>93.87697288736116</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-21</t>
+        </is>
+      </c>
+      <c r="B1601" t="inlineStr">
+        <is>
+          <t>2022-09-21</t>
+        </is>
+      </c>
+      <c r="C1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1601" t="n">
+        <v>62.68000030517578</v>
+      </c>
+      <c r="E1601" t="inlineStr"/>
+      <c r="F1601" t="inlineStr"/>
+      <c r="G1601" t="inlineStr"/>
+      <c r="H1601" t="n">
+        <v>-0.02489107816592584</v>
+      </c>
+      <c r="I1601" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1601" t="n">
+        <v>93.87697288736116</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-22</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t>2022-09-22</t>
+        </is>
+      </c>
+      <c r="C1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1602" t="n">
+        <v>61.88000106811523</v>
+      </c>
+      <c r="E1602" t="inlineStr"/>
+      <c r="F1602" t="inlineStr"/>
+      <c r="G1602" t="inlineStr"/>
+      <c r="H1602" t="n">
+        <v>-0.01276322962931586</v>
+      </c>
+      <c r="I1602" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1602" t="n">
+        <v>93.87697288736116</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-23</t>
+        </is>
+      </c>
+      <c r="B1603" t="inlineStr">
+        <is>
+          <t>2022-09-23</t>
+        </is>
+      </c>
+      <c r="C1603" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1603" t="n">
+        <v>58.72999954223633</v>
+      </c>
+      <c r="E1603" t="inlineStr"/>
+      <c r="F1603" t="inlineStr"/>
+      <c r="G1603" t="n">
+        <v>15.30935645376618</v>
+      </c>
+      <c r="H1603" t="n">
+        <v>-0.05090500115556718</v>
+      </c>
+      <c r="I1603" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1603" t="n">
+        <v>93.87697288736116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
